--- a/Data/EC/NIT-9009391992.xlsx
+++ b/Data/EC/NIT-9009391992.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EAD895-AD8B-4C22-8BB4-3EA7F34F4998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2379DF-DEB6-4848-8911-27A9B0E51EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9A3E713-9108-4B1B-B756-F75EBCD70B2E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF824B1D-5583-43C8-9CAA-39B9700715D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,109 +71,109 @@
     <t>ROBERTO CARLOS MAZA CUADRO</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
     <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDF0F39-16A9-F260-31A6-E0B224CDC2B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD148FC4-D061-4C0A-482F-E76C053DF20F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,28 +938,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572EC992-A3FD-4D52-9378-2B0D350B2AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A096F1F-4887-47EF-9BEC-56C67A2EA0E6}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -972,7 +972,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -983,7 +983,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -994,7 +994,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1005,8 +1005,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1021,8 +1021,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1037,8 +1037,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1053,8 +1053,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56000</v>
+        <v>52267</v>
       </c>
       <c r="G16" s="18">
         <v>1400000</v>
@@ -1125,7 +1125,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="21" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="24">
-        <v>52267</v>
+        <v>56000</v>
       </c>
       <c r="G50" s="24">
         <v>1400000</v>
@@ -1907,7 +1907,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="32" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="32" t="s">
         <v>54</v>
       </c>

--- a/Data/EC/NIT-9009391992.xlsx
+++ b/Data/EC/NIT-9009391992.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2379DF-DEB6-4848-8911-27A9B0E51EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{574D6E55-71B3-4D9B-9D1F-5F9FA628D3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF824B1D-5583-43C8-9CAA-39B9700715D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD9596F9-C7EA-4E4B-A400-91572A1A485F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,109 +71,109 @@
     <t>ROBERTO CARLOS MAZA CUADRO</t>
   </si>
   <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,7 +272,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -285,9 +287,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -487,23 +487,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,10 +531,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,13 +572,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -587,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD148FC4-D061-4C0A-482F-E76C053DF20F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255C77D5-F2AF-2026-C061-D767551654B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -609,7 +609,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,28 +938,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A096F1F-4887-47EF-9BEC-56C67A2EA0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642035DE-D32A-43B7-971F-DD2A6DB7E220}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -972,7 +972,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -983,7 +983,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -994,7 +994,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1005,8 +1005,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1021,8 +1021,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1037,8 +1037,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1053,8 +1053,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52267</v>
+        <v>56000</v>
       </c>
       <c r="G16" s="18">
         <v>1400000</v>
@@ -1125,7 +1125,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="21" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="24">
-        <v>56000</v>
+        <v>52267</v>
       </c>
       <c r="G50" s="24">
         <v>1400000</v>
@@ -1907,7 +1907,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="32" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="32" t="s">
         <v>54</v>
       </c>
